--- a/Python_TWS_API_Historical_Data_Download/Python_TWS_API_Historical_Data_Download/US_Stock_Tickers.xlsx
+++ b/Python_TWS_API_Historical_Data_Download/Python_TWS_API_Historical_Data_Download/US_Stock_Tickers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python TWS API\Python_TWS_API_Historical_Data_Download\Python_TWS_API_Historical_Data_Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8817D0C5-D588-4B66-812A-9C8B20A223A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{55B21B97-7968-46E7-BCC3-18AEFE32F37A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7980"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$U$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$15:$U$1239</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -26157,8 +26157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="M178" sqref="M178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -87207,7 +87207,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A15:U15"/>
+  <autoFilter ref="A15:U1239"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
